--- a/data/tcmb-faiz.xlsx
+++ b/data/tcmb-faiz.xlsx
@@ -524,7 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -559,7 +559,7 @@
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,10 +571,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +884,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
